--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-patient.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T07:43:46+00:00</t>
+    <t>2025-10-24T09:56:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-patient.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="822">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T09:56:53+00:00</t>
+    <t>2025-10-27T08:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -521,7 +521,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -564,7 +564,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -640,7 +640,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.1.0}
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.1.0}
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.1.0}
 </t>
   </si>
   <si>
@@ -692,7 +692,7 @@
     <t>birthdateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.1.0}
 </t>
   </si>
   <si>
@@ -705,7 +705,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthPlace}
+    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
 </t>
   </si>
   <si>
@@ -754,7 +754,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.1.0}
 </t>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1337,7 +1337,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1578,9 +1578,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1591,10 +1588,6 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1631,7 +1624,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.0.0}
 </t>
   </si>
   <si>
@@ -1884,7 +1877,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.1.0}
 </t>
   </si>
   <si>
@@ -1930,7 +1923,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1971,7 +1964,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS|2.1.0</t>
   </si>
   <si>
     <t>sexe</t>
@@ -2038,7 +2031,7 @@
     <t>tddui-birth-order</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-birth-order}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-birth-order|2.0.0}
 </t>
   </si>
   <si>
@@ -2106,7 +2099,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.1.0</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2209,7 +2202,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.1.0}
 </t>
   </si>
   <si>
@@ -2225,7 +2218,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.1.0}
 </t>
   </si>
   <si>
@@ -2267,7 +2260,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -2289,7 +2282,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.relationship:RelationType</t>
@@ -2301,13 +2294,13 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0}
 </t>
   </si>
   <si>
@@ -2497,7 +2490,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2521,7 +2514,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -2572,7 +2565,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2924,7 +2917,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2939,7 +2932,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.07421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
@@ -13962,7 +13955,7 @@
         <v>392</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>495</v>
+        <v>393</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -14015,7 +14008,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>397</v>
@@ -14137,7 +14130,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>408</v>
@@ -14257,7 +14250,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>417</v>
@@ -14375,7 +14368,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>424</v>
@@ -14401,7 +14394,7 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>426</v>
@@ -14495,10 +14488,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14521,26 +14514,26 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="O97" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="R97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14584,7 +14577,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14602,13 +14595,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14619,10 +14612,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14645,19 +14638,19 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14694,7 +14687,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14704,7 +14697,7 @@
         <v>118</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14722,16 +14715,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14739,13 +14732,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14767,19 +14760,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14828,7 +14821,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14846,16 +14839,16 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO99" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>82</v>
@@ -14863,10 +14856,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14981,10 +14974,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15101,10 +15094,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15130,16 +15123,16 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15167,28 +15160,28 @@
         <v>261</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF102" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15215,7 +15208,7 @@
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15223,10 +15216,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15252,13 +15245,13 @@
         <v>105</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>282</v>
@@ -15310,7 +15303,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15337,7 +15330,7 @@
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15345,14 +15338,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15374,13 +15367,13 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15430,7 +15423,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15445,19 +15438,19 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15465,14 +15458,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15494,13 +15487,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N105" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15550,7 +15543,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15565,19 +15558,19 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO105" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15585,10 +15578,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15614,10 +15607,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15668,7 +15661,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15686,7 +15679,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15695,7 +15688,7 @@
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15703,10 +15696,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15732,10 +15725,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15786,7 +15779,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15804,7 +15797,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
@@ -15813,7 +15806,7 @@
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15821,10 +15814,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15850,14 +15843,14 @@
         <v>341</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15906,7 +15899,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15933,7 +15926,7 @@
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>82</v>
@@ -15941,13 +15934,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
@@ -15969,19 +15962,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16030,7 +16023,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16048,16 +16041,16 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO109" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16065,10 +16058,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16183,10 +16176,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16303,13 +16296,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>82</v>
@@ -16331,13 +16324,13 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16403,7 +16396,7 @@
         <v>120</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -16423,10 +16416,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16452,16 +16445,16 @@
         <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16489,28 +16482,28 @@
         <v>261</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF113" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16537,7 +16530,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16545,10 +16538,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16574,13 +16567,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>282</v>
@@ -16632,7 +16625,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16659,7 +16652,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16667,14 +16660,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16696,13 +16689,13 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16752,7 +16745,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16767,10 +16760,10 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16779,7 +16772,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16787,14 +16780,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16816,13 +16809,13 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N116" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16872,7 +16865,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16887,10 +16880,10 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16899,7 +16892,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16907,10 +16900,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16936,10 +16929,10 @@
         <v>105</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16990,7 +16983,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17005,10 +16998,10 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17017,7 +17010,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17025,10 +17018,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17054,10 +17047,10 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17108,7 +17101,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17126,7 +17119,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17135,7 +17128,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17143,10 +17136,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17172,14 +17165,14 @@
         <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17228,7 +17221,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17255,7 +17248,7 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17263,10 +17256,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17289,19 +17282,19 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17350,7 +17343,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17362,22 +17355,22 @@
         <v>204</v>
       </c>
       <c r="AJ120" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO120" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>82</v>
@@ -17385,10 +17378,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17414,16 +17407,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17452,7 +17445,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17470,7 +17463,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17485,19 +17478,19 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="AL121" t="s" s="2">
+      <c r="AN121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO121" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17505,10 +17498,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17531,19 +17524,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17592,7 +17585,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17607,30 +17600,30 @@
         <v>103</v>
       </c>
       <c r="AK122" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="AL122" t="s" s="2">
+      <c r="AN122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO122" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="AM122" t="s" s="2">
+      <c r="AP122" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AP122" t="s" s="2">
-        <v>637</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17656,10 +17649,10 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17745,10 +17738,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17861,13 +17854,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B125" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C125" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="C125" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17889,13 +17882,13 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17961,7 +17954,7 @@
         <v>120</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17981,10 +17974,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18007,13 +18000,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18064,7 +18057,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18099,10 +18092,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18125,19 +18118,19 @@
         <v>92</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="O127" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18186,7 +18179,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18204,7 +18197,7 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>109</v>
@@ -18213,7 +18206,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18221,10 +18214,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18259,7 +18252,7 @@
         <v>240</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18308,7 +18301,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18343,10 +18336,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18372,14 +18365,14 @@
         <v>386</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18408,7 +18401,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18426,7 +18419,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18444,16 +18437,16 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO129" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18461,10 +18454,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18487,19 +18480,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18548,7 +18541,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18566,7 +18559,7 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>109</v>
@@ -18575,7 +18568,7 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>82</v>
@@ -18583,10 +18576,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18609,19 +18602,19 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="O131" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18670,7 +18663,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18688,7 +18681,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>109</v>
@@ -18697,7 +18690,7 @@
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18705,10 +18698,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18731,19 +18724,19 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="O132" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18792,7 +18785,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18804,13 +18797,13 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>109</v>
@@ -18827,10 +18820,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18945,10 +18938,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19061,13 +19054,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B135" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="C135" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19089,13 +19082,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19181,13 +19174,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19209,13 +19202,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19301,14 +19294,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19330,10 +19323,10 @@
         <v>112</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>115</v>
@@ -19388,7 +19381,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19423,10 +19416,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19452,14 +19445,14 @@
         <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19487,16 +19480,16 @@
         <v>153</v>
       </c>
       <c r="Y138" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB138" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
@@ -19506,7 +19499,7 @@
         <v>118</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19524,7 +19517,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19533,7 +19526,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19541,13 +19534,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19572,14 +19565,14 @@
         <v>386</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19608,7 +19601,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19626,7 +19619,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19644,7 +19637,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19653,7 +19646,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19661,13 +19654,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>82</v>
@@ -19692,14 +19685,14 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19728,7 +19721,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19746,7 +19739,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19764,7 +19757,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19773,7 +19766,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19781,10 +19774,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19807,19 +19800,19 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19868,7 +19861,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19886,7 +19879,7 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -19895,7 +19888,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -19903,10 +19896,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19929,19 +19922,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L142" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="O142" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19990,7 +19983,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20002,22 +19995,22 @@
         <v>204</v>
       </c>
       <c r="AJ142" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO142" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO142" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20025,10 +20018,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20051,17 +20044,17 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20110,7 +20103,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20128,7 +20121,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>109</v>
@@ -20137,7 +20130,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20145,10 +20138,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20174,14 +20167,14 @@
         <v>171</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20209,10 +20202,10 @@
         <v>261</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20230,7 +20223,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20248,7 +20241,7 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>109</v>
@@ -20257,7 +20250,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20265,10 +20258,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20294,14 +20287,14 @@
         <v>425</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20350,7 +20343,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20359,7 +20352,7 @@
         <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
@@ -20368,7 +20361,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>109</v>
@@ -20377,7 +20370,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20385,10 +20378,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20414,10 +20407,10 @@
         <v>341</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20468,7 +20461,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20486,7 +20479,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20503,10 +20496,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20529,19 +20522,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="O147" t="s" s="2">
         <v>765</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20590,7 +20583,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20608,10 +20601,10 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20625,10 +20618,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20743,10 +20736,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20863,14 +20856,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20892,10 +20885,10 @@
         <v>112</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>115</v>
@@ -20950,7 +20943,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20985,10 +20978,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21014,16 +21007,16 @@
         <v>386</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="O151" t="s" s="2">
         <v>775</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21072,7 +21065,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>91</v>
@@ -21090,16 +21083,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO151" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="AN151" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO151" t="s" s="2">
-        <v>780</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21107,10 +21100,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21133,19 +21126,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="O152" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21194,7 +21187,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21212,16 +21205,16 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AN152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO152" t="s" s="2">
         <v>786</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO152" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21229,14 +21222,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21255,16 +21248,16 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>791</v>
       </c>
-      <c r="L153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>792</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>794</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21314,7 +21307,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21332,7 +21325,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21341,7 +21334,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21349,10 +21342,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21375,19 +21368,19 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>800</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21436,7 +21429,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21454,10 +21447,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -21471,10 +21464,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21497,19 +21490,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21558,7 +21551,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21576,7 +21569,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>109</v>
@@ -21593,10 +21586,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21711,10 +21704,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21831,14 +21824,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21860,10 +21853,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21918,7 +21911,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21953,10 +21946,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21979,16 +21972,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>814</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22038,7 +22031,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22065,7 +22058,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22073,10 +22066,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22102,10 +22095,10 @@
         <v>171</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22135,10 +22128,10 @@
         <v>261</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -22156,7 +22149,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>91</v>
@@ -22174,7 +22167,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>109</v>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-patient.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="824">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T08:54:54+00:00</t>
+    <t>2025-10-27T14:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(StructureDefinition)
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -521,7 +521,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -564,7 +564,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -640,7 +640,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality}
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability}
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place}
 </t>
   </si>
   <si>
@@ -692,7 +692,7 @@
     <t>birthdateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator}
 </t>
   </si>
   <si>
@@ -705,7 +705,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
+    <t xml:space="preserve">Extension {patient-birthPlace}
 </t>
   </si>
   <si>
@@ -754,7 +754,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
 </t>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1337,7 +1337,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1578,6 +1578,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1588,6 +1591,10 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1624,7 +1631,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.0.0}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
 </t>
   </si>
   <si>
@@ -1877,7 +1884,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name}
 </t>
   </si>
   <si>
@@ -1923,7 +1930,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
 </t>
   </si>
   <si>
@@ -1964,7 +1971,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS</t>
   </si>
   <si>
     <t>sexe</t>
@@ -2031,7 +2038,7 @@
     <t>tddui-birth-order</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-birth-order|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-birth-order}
 </t>
   </si>
   <si>
@@ -2099,7 +2106,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2202,7 +2209,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier}
 </t>
   </si>
   <si>
@@ -2218,7 +2225,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment}
 </t>
   </si>
   <si>
@@ -2260,7 +2267,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -2282,7 +2289,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
   </si>
   <si>
     <t>Patient.contact.relationship:RelationType</t>
@@ -2294,13 +2301,13 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
 </t>
   </si>
   <si>
@@ -2490,7 +2497,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
 </t>
   </si>
   <si>
@@ -2514,7 +2521,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
 </t>
   </si>
   <si>
@@ -2565,7 +2572,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -2917,7 +2924,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="137.58984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2932,7 +2939,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.07421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
@@ -13955,7 +13962,7 @@
         <v>392</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>393</v>
+        <v>495</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -14008,7 +14015,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>397</v>
@@ -14130,7 +14137,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>408</v>
@@ -14250,7 +14257,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>417</v>
@@ -14368,7 +14375,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>424</v>
@@ -14394,7 +14401,7 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>426</v>
@@ -14488,10 +14495,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14514,70 +14521,70 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14595,13 +14602,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14612,10 +14619,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14638,19 +14645,19 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14687,7 +14694,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14697,7 +14704,7 @@
         <v>118</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14715,16 +14722,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14732,13 +14739,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14760,19 +14767,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14821,7 +14828,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14839,16 +14846,16 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>82</v>
@@ -14856,10 +14863,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14974,10 +14981,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15094,10 +15101,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15123,16 +15130,16 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15160,10 +15167,10 @@
         <v>261</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -15181,7 +15188,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15208,7 +15215,7 @@
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15216,10 +15223,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15245,13 +15252,13 @@
         <v>105</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>282</v>
@@ -15303,7 +15310,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15330,7 +15337,7 @@
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15338,14 +15345,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15367,13 +15374,13 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15423,7 +15430,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15438,10 +15445,10 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
@@ -15450,7 +15457,7 @@
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15458,14 +15465,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15487,13 +15494,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15543,7 +15550,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15558,10 +15565,10 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
@@ -15570,7 +15577,7 @@
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15578,10 +15585,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15607,10 +15614,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15661,7 +15668,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15679,7 +15686,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15688,7 +15695,7 @@
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15696,10 +15703,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15725,10 +15732,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15779,7 +15786,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15797,7 +15804,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
@@ -15806,7 +15813,7 @@
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15814,10 +15821,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15843,14 +15850,14 @@
         <v>341</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15899,7 +15906,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15926,7 +15933,7 @@
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>82</v>
@@ -15934,13 +15941,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
@@ -15962,19 +15969,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16023,7 +16030,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16041,16 +16048,16 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16058,10 +16065,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16176,10 +16183,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16296,13 +16303,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>82</v>
@@ -16324,13 +16331,13 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16396,7 +16403,7 @@
         <v>120</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -16416,10 +16423,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16445,16 +16452,16 @@
         <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16482,10 +16489,10 @@
         <v>261</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16503,7 +16510,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16530,7 +16537,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16538,10 +16545,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16567,13 +16574,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>282</v>
@@ -16625,7 +16632,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16652,7 +16659,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16660,14 +16667,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16689,13 +16696,13 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16745,7 +16752,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16760,10 +16767,10 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16772,7 +16779,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16780,14 +16787,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16809,13 +16816,13 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16865,7 +16872,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16880,10 +16887,10 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16892,7 +16899,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16900,10 +16907,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16929,10 +16936,10 @@
         <v>105</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16983,7 +16990,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16998,10 +17005,10 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17010,7 +17017,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17018,10 +17025,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17047,10 +17054,10 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17101,7 +17108,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17119,7 +17126,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17128,7 +17135,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17136,10 +17143,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17165,14 +17172,14 @@
         <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17221,7 +17228,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17248,7 +17255,7 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17256,10 +17263,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17282,19 +17289,19 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17343,7 +17350,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17355,13 +17362,13 @@
         <v>204</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>82</v>
@@ -17370,7 +17377,7 @@
         <v>82</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>82</v>
@@ -17378,10 +17385,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17407,16 +17414,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17445,7 +17452,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17463,7 +17470,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17478,19 +17485,19 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17498,10 +17505,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17524,19 +17531,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17585,7 +17592,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17600,30 +17607,30 @@
         <v>103</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17649,10 +17656,10 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17738,10 +17745,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17854,13 +17861,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17882,13 +17889,13 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17954,7 +17961,7 @@
         <v>120</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17974,10 +17981,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18000,13 +18007,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18057,7 +18064,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18092,10 +18099,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18118,19 +18125,19 @@
         <v>92</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18179,7 +18186,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18197,7 +18204,7 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>109</v>
@@ -18206,7 +18213,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18214,10 +18221,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18252,7 +18259,7 @@
         <v>240</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18301,7 +18308,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18336,10 +18343,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18365,14 +18372,14 @@
         <v>386</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18401,7 +18408,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18419,7 +18426,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18437,16 +18444,16 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18454,10 +18461,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18480,19 +18487,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18541,7 +18548,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18559,7 +18566,7 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>109</v>
@@ -18568,7 +18575,7 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>82</v>
@@ -18576,10 +18583,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18602,19 +18609,19 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18663,7 +18670,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18681,7 +18688,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>109</v>
@@ -18690,7 +18697,7 @@
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18698,10 +18705,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18724,19 +18731,19 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18785,7 +18792,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18797,13 +18804,13 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>109</v>
@@ -18820,10 +18827,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18938,10 +18945,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19054,13 +19061,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19082,13 +19089,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19174,13 +19181,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19202,13 +19209,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19294,14 +19301,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19323,10 +19330,10 @@
         <v>112</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>115</v>
@@ -19381,7 +19388,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19416,10 +19423,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19445,14 +19452,14 @@
         <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19480,16 +19487,16 @@
         <v>153</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
@@ -19499,7 +19506,7 @@
         <v>118</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19517,7 +19524,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19526,7 +19533,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19534,13 +19541,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19565,14 +19572,14 @@
         <v>386</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19601,7 +19608,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19619,7 +19626,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19637,7 +19644,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19646,7 +19653,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19654,13 +19661,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>82</v>
@@ -19685,14 +19692,14 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19721,7 +19728,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19739,7 +19746,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19757,7 +19764,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19766,7 +19773,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19774,10 +19781,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19800,19 +19807,19 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19861,7 +19868,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19879,7 +19886,7 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -19888,7 +19895,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -19896,10 +19903,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19922,19 +19929,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19983,7 +19990,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19995,13 +20002,13 @@
         <v>204</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20010,7 +20017,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20018,10 +20025,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20044,17 +20051,17 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20103,7 +20110,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20121,7 +20128,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>109</v>
@@ -20130,7 +20137,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20138,10 +20145,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20167,14 +20174,14 @@
         <v>171</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20202,10 +20209,10 @@
         <v>261</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20223,7 +20230,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20241,7 +20248,7 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>109</v>
@@ -20250,7 +20257,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20258,10 +20265,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20287,14 +20294,14 @@
         <v>425</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20343,7 +20350,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20352,7 +20359,7 @@
         <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
@@ -20361,7 +20368,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>109</v>
@@ -20370,7 +20377,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20378,10 +20385,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20407,10 +20414,10 @@
         <v>341</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20461,7 +20468,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20479,7 +20486,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20496,10 +20503,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20522,19 +20529,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20583,7 +20590,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20601,10 +20608,10 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20618,10 +20625,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20736,10 +20743,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20856,14 +20863,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20885,10 +20892,10 @@
         <v>112</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>115</v>
@@ -20943,7 +20950,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20978,10 +20985,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21007,16 +21014,16 @@
         <v>386</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21065,7 +21072,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>91</v>
@@ -21083,16 +21090,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21100,10 +21107,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21126,19 +21133,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21187,7 +21194,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21205,16 +21212,16 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21222,14 +21229,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21248,16 +21255,16 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21307,7 +21314,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21325,7 +21332,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21334,7 +21341,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21342,10 +21349,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21368,19 +21375,19 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21429,7 +21436,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21447,10 +21454,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -21464,10 +21471,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21490,19 +21497,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21551,7 +21558,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21569,7 +21576,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>109</v>
@@ -21586,10 +21593,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21704,10 +21711,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21824,14 +21831,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21853,10 +21860,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21911,7 +21918,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21946,10 +21953,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21972,16 +21979,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22031,7 +22038,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22058,7 +22065,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22066,10 +22073,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22095,10 +22102,10 @@
         <v>171</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22128,28 +22135,28 @@
         <v>261</v>
       </c>
       <c r="Y160" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF160" t="s" s="2">
         <v>819</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>91</v>
@@ -22167,7 +22174,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>109</v>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-patient.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T14:34:13+00:00</t>
+    <t>2025-10-28T10:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-patient.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T10:21:51+00:00</t>
+    <t>2025-10-28T15:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-patient.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:41:17+00:00</t>
+    <t>2025-10-29T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
